--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{D01F93C5-2476-4404-94D2-025C4278029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3419A20A-82E2-413B-BD42-92C7FE415BCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>백준 10816</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>13분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up table 활용잘하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 시간에 대한 감이 안 옴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +427,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -418,39 +438,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -502,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -613,6 +633,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -621,13 +648,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -692,31 +712,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,17 +726,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF53330-4BC7-4086-B520-171237F30A03}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="1"/>
-    <col min="10" max="10" width="69.59765625" customWidth="1"/>
+    <col min="1" max="1" width="44.625" customWidth="1"/>
+    <col min="10" max="10" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -803,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -814,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -831,7 +831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -842,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -856,7 +856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -881,7 +881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -895,7 +895,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -903,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -914,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -922,7 +922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -939,22 +939,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -971,7 +980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -979,92 +988,101 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>

--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\BOJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987226C4-63C9-44A0-99B5-6826F44E5462}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>백준 10816</t>
   </si>
@@ -312,11 +312,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>어떻게 할지 방향은 잡았으나 구현을 어떻게 할지 감이 안 옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 좀 더 생각하면 나올 수 있을 것 같은데, 어떤 기준으로 정렬해야할지 생각이 안남</t>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떻게 할지 방향은 잡았으나 구현을 어떻게 할지 감이 안 옴</t>
+    <t>13분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up table 활용잘하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,42 +351,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>중간값에서 가까운 애 찾는 방법(최적화 시키기), 최대 시간에 대한 감이 안 옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근데 좀 더 생각하면 나올 수 있을 것 같은데, 어떤 기준으로 정렬해야할지 생각이 안남</t>
+    <t>30분 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30분초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look up table 활용잘하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30분 초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 시간에 대한 감이 안 옴</t>
+    <t>0이 함정임 어떻게 무시할 수 있을까? &gt; 이것만 알면 시간내 풀 수 있을 것 같음, 다익스트라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +439,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +484,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +590,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,17 +742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF53330-4BC7-4086-B520-171237F30A03}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="1"/>
-    <col min="10" max="10" width="69.625" customWidth="1"/>
+    <col min="1" max="1" width="44.59765625" customWidth="1"/>
+    <col min="10" max="10" width="69.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -765,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -781,7 +797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -789,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -803,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -814,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -831,7 +847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -842,7 +858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -856,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -867,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -881,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -895,7 +911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -903,7 +919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -914,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -922,7 +938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -933,156 +949,171 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
         <v>77</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
         <v>73</v>
       </c>
-      <c r="I20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>66</v>
       </c>

--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987226C4-63C9-44A0-99B5-6826F44E5462}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74A1598-6855-4212-A4DB-6C7A488ADE54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>백준 10816</t>
   </si>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백준 0984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백준 11758</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +368,30 @@
   </si>
   <si>
     <t>0이 함정임 어떻게 무시할 수 있을까? &gt; 이것만 알면 시간내 풀 수 있을 것 같음, 다익스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 9084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP에 많이 약함, 일반적 패턴(점화식) 도출 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +763,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -935,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -943,16 +963,16 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -965,35 +985,38 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>46</v>
       </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
         <v>72</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -1001,7 +1024,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1009,16 +1032,16 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -1026,96 +1049,111 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>83</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74A1598-6855-4212-A4DB-6C7A488ADE54}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75A8AC2-5795-4B3A-A862-1D9762D0CD1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>백준 10816</t>
   </si>
@@ -387,11 +387,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DP에 많이 약함, 일반적 패턴(점화식) 도출 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 만 더 하면 풀 것 같긴한데, 어디가 막혔는지 모르겠음, 특정 알고리즘이 필요한가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리 순회에 관한 확실한 개념이 부족해서 못 품, (특히 후위, 전위 순회쪽), 마지막 None찍힘 방지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 파악도 못했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 파악도 못했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list로의 bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 개수 달라지는 것 어떻게 받을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 잘 못 이해 (서로소로 푸냐, 그냥 bfs로 푸냐?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF53330-4BC7-4086-B520-171237F30A03}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1080,78 +1152,165 @@
         <v>88</v>
       </c>
       <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
         <v>89</v>
-      </c>
-      <c r="J25" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>53</v>
       </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>54</v>
       </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>55</v>
       </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>56</v>
       </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>57</v>
       </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>65</v>
       </c>

--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75A8AC2-5795-4B3A-A862-1D9762D0CD1C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F73FF6-7A04-432B-B054-42FDE92487DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>백준 10816</t>
   </si>
@@ -464,6 +464,26 @@
   </si>
   <si>
     <t>유형 잘 못 이해 (서로소로 푸냐, 그냥 bfs로 푸냐?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀긴했는데 때려맞춤 (정확히 이해한 것 같진 않음) &gt;&gt; 투포인터 유형 공부!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백트래킹과 + 문자열 계산 어떻게..?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF53330-4BC7-4086-B520-171237F30A03}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1309,10 +1329,28 @@
       <c r="A38" t="s">
         <v>64</v>
       </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/백준 반복 문제.xlsx
+++ b/백준 반복 문제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13fe5cca7dcf602b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F73FF6-7A04-432B-B054-42FDE92487DA}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{7921246E-8D7B-48C4-B2C8-8809D14D3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9B7151D-E977-412C-88B2-C05D97FC37DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{31B192AA-2926-4CD7-9CB0-3830E44D08A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>백준 10816</t>
   </si>
@@ -484,6 +484,162 @@
   </si>
   <si>
     <t>백트래킹과 + 문자열 계산 어떻게..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 17140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 10815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 17266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 7795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 11054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 8958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 7526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 16236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 2437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 15686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 9095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 25644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 2170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 17070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 18352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 14725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 7569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 2887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 12015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 10942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 1799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걍 감도 안 옴 (수학 류는 어떻게 ?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF53330-4BC7-4086-B520-171237F30A03}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1353,6 +1509,202 @@
         <v>113</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
